--- a/Home Sales-Emily Rund.xlsx
+++ b/Home Sales-Emily Rund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34050e713a47069e/Desktop/QMBE_1320_Emily_Rund/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CA509C-C070-48BF-8DA3-0267EA7C92A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9F36D723-B424-4985-8AE6-E5439400253E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{93925B6F-82AA-4400-B87F-195773EAE020}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Home Sale</t>
   </si>
@@ -100,6 +100,33 @@
   </si>
   <si>
     <t>IQR</t>
+  </si>
+  <si>
+    <t>st.dev./ mean)</t>
+  </si>
+  <si>
+    <t>(average)</t>
+  </si>
+  <si>
+    <t>(middle number)</t>
+  </si>
+  <si>
+    <t>(most repeated number)</t>
+  </si>
+  <si>
+    <t>(max-min)</t>
+  </si>
+  <si>
+    <t>Measures of central tendency</t>
+  </si>
+  <si>
+    <t>(Mean, Median, Mode)</t>
+  </si>
+  <si>
+    <t>Measures of variability</t>
+  </si>
+  <si>
+    <t>(Range, Variance, St. Dev., Coefficient)</t>
   </si>
 </sst>
 </file>
@@ -500,18 +527,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6500AF54-7273-4B9A-97C6-8B5BB03F4DA3}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="45.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -519,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -533,8 +564,14 @@
         <f>AVERAGE(B2:B13)</f>
         <v>219937.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -548,8 +585,14 @@
         <f>MEDIAN(B2:B13)</f>
         <v>203750</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -563,8 +606,11 @@
         <f t="array" ref="E4:E5">_xlfn.MODE.MULT(B2:B13)</f>
         <v>138000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -575,7 +621,7 @@
         <v>254000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -585,8 +631,18 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f>MAX(B2:B13)-MIN(B2:B13)</f>
+        <v>348250</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -596,8 +652,19 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f>_xlfn.VAR.S(B2:B13)</f>
+        <v>9037501420.454546</v>
+      </c>
+      <c r="G7">
+        <f>SQRT(E7)</f>
+        <v>95065.774180062013</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -607,8 +674,12 @@
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f>_xlfn.STDEV.S(B2:B13)</f>
+        <v>95065.774180062013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -616,7 +687,7 @@
         <v>298000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -626,8 +697,15 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f>E8/E2</f>
+        <v>0.43223995080448768</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -635,7 +713,7 @@
         <v>208000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -646,7 +724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -654,19 +732,19 @@
         <v>456250</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
